--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_7.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_0</t>
+          <t>model_7_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9724048252037207</v>
+        <v>0.9695433150280889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7551551602629087</v>
+        <v>0.746728995122898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97670335536037</v>
+        <v>0.03701729549938171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9707406955919499</v>
+        <v>0.9834494521223739</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9728037573252514</v>
+        <v>0.9155639939449741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1158110424876213</v>
+        <v>0.1278201937675476</v>
       </c>
       <c r="H2" t="n">
-        <v>1.63727855682373</v>
+        <v>1.693624496459961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1150480732321739</v>
+        <v>0.5070037245750427</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4203711152076721</v>
+        <v>0.08098884671926498</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2677097022533417</v>
+        <v>0.2939963936805725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_1</t>
+          <t>model_7_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9723709156412798</v>
+        <v>0.9694473402923174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7550224429034025</v>
+        <v>0.7466758199605577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9765410992260407</v>
+        <v>0.03969155015177095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.970473743272507</v>
+        <v>0.9835253667813689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9725682551141301</v>
+        <v>0.9158195667459148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1159533485770226</v>
+        <v>0.1282229721546173</v>
       </c>
       <c r="H3" t="n">
-        <v>1.638166069984436</v>
+        <v>1.693979978561401</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1158493608236313</v>
+        <v>0.5055958032608032</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4242064654827118</v>
+        <v>0.08061736822128296</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2700279355049133</v>
+        <v>0.2931065559387207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_2</t>
+          <t>model_7_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9723346548208598</v>
+        <v>0.9693480826444333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7548894710866149</v>
+        <v>0.7466217656788838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9763795045123338</v>
+        <v>0.04237504739458864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9702074169168767</v>
+        <v>0.9836007103338971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9723333588587647</v>
+        <v>0.9160754053266381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1161055341362953</v>
+        <v>0.1286395341157913</v>
       </c>
       <c r="H4" t="n">
-        <v>1.639055252075195</v>
+        <v>1.694341421127319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1166473776102066</v>
+        <v>0.5041829347610474</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4280328154563904</v>
+        <v>0.08024868369102478</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2723401486873627</v>
+        <v>0.2922157347202301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_3</t>
+          <t>model_7_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9722961048840764</v>
+        <v>0.9692454938820096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7547562728637147</v>
+        <v>0.746566835093075</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9762185991096526</v>
+        <v>0.04506952165078493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9699417805998677</v>
+        <v>0.9836753046630659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9720991543723455</v>
+        <v>0.9163315206536843</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1162673011422157</v>
+        <v>0.1290700882673264</v>
       </c>
       <c r="H5" t="n">
-        <v>1.639945983886719</v>
+        <v>1.694708704948425</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1174419969320297</v>
+        <v>0.5027643442153931</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4318492114543915</v>
+        <v>0.07988366484642029</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2746455669403076</v>
+        <v>0.2913239896297455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_4</t>
+          <t>model_7_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9722553399612022</v>
+        <v>0.9691394842524751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7546228919386759</v>
+        <v>0.7465109756754256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9760584993661374</v>
+        <v>0.04777458375865762</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9696768091609176</v>
+        <v>0.9837491526236939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9718656169060568</v>
+        <v>0.9165879054968268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1164383962750435</v>
+        <v>0.1295149773359299</v>
       </c>
       <c r="H6" t="n">
-        <v>1.640837907791138</v>
+        <v>1.695082187652588</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1182326301932335</v>
+        <v>0.5013401508331299</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4356560707092285</v>
+        <v>0.07952228188514709</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2769444286823273</v>
+        <v>0.2904312610626221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_5</t>
+          <t>model_7_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9722124245861127</v>
+        <v>0.969029924682174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7544893590973213</v>
+        <v>0.7464541815448238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9758990811007983</v>
+        <v>0.05048878320640737</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9694125143502653</v>
+        <v>0.983821991292933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9716327716938302</v>
+        <v>0.9168442845390707</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1166185066103935</v>
+        <v>0.1299747973680496</v>
       </c>
       <c r="H7" t="n">
-        <v>1.641730785369873</v>
+        <v>1.695461988449097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.119019903242588</v>
+        <v>0.4999111592769623</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4394532442092896</v>
+        <v>0.07916586101055145</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2792364656925201</v>
+        <v>0.2895385921001434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_6</t>
+          <t>model_7_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9721674360964905</v>
+        <v>0.968916734875106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7543556794575084</v>
+        <v>0.7463964437819504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.975740421341537</v>
+        <v>0.05321119750390835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9691490273946098</v>
+        <v>0.9838939007603407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9714006946057568</v>
+        <v>0.9171006547420495</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1168073117733002</v>
+        <v>0.1304498016834259</v>
       </c>
       <c r="H8" t="n">
-        <v>1.642624616622925</v>
+        <v>1.695848226547241</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1198034211993217</v>
+        <v>0.4984778165817261</v>
       </c>
       <c r="J8" t="n">
-        <v>0.443238765001297</v>
+        <v>0.07881397753953934</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2815209627151489</v>
+        <v>0.2886459231376648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_7</t>
+          <t>model_7_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.97212048023908</v>
+        <v>0.968799844841941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7542218909495781</v>
+        <v>0.7463377532765882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9755826274711953</v>
+        <v>0.05594351685118992</v>
       </c>
       <c r="E9" t="n">
-        <v>0.968886324159927</v>
+        <v>0.9839647144234598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.971169385660223</v>
+        <v>0.9173569917528553</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1170043721795082</v>
+        <v>0.1309403777122498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.643519401550293</v>
+        <v>1.696240663528442</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1205826699733734</v>
+        <v>0.4970392882823944</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4470130503177643</v>
+        <v>0.07846745848655701</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2837978601455688</v>
+        <v>0.2877534031867981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_8</t>
+          <t>model_7_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9720715889053521</v>
+        <v>0.9686790812041852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7540880314212495</v>
+        <v>0.7462781041861806</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9754255999372028</v>
+        <v>0.05868282341994369</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9686243761994164</v>
+        <v>0.9840343362652237</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9709388471537341</v>
+        <v>0.9176130529158926</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1172095611691475</v>
+        <v>0.1314471960067749</v>
       </c>
       <c r="H10" t="n">
-        <v>1.64441442489624</v>
+        <v>1.69663941860199</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1213581413030624</v>
+        <v>0.4955970346927643</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4507764875888824</v>
+        <v>0.07812675833702087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2860672175884247</v>
+        <v>0.2868618369102478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_9</t>
+          <t>model_7_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9720208204481948</v>
+        <v>0.9685543719308899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7539541173075166</v>
+        <v>0.7462174353631787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9752694359973502</v>
+        <v>0.06142994064095331</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9683632740099715</v>
+        <v>0.9841026350353459</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9707091212574618</v>
+        <v>0.917868696535439</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1174226254224777</v>
+        <v>0.1319705694913864</v>
       </c>
       <c r="H11" t="n">
-        <v>1.645310044288635</v>
+        <v>1.697045207023621</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1221293359994888</v>
+        <v>0.4941507279872894</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4545277953147888</v>
+        <v>0.07779254764318466</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2883285582065582</v>
+        <v>0.2859717011451721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_10</t>
+          <t>model_7_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9719682982426155</v>
+        <v>0.9684256030368233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7538201824492858</v>
+        <v>0.7461557386170852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9751141627826703</v>
+        <v>0.06418341888687784</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9681030652407803</v>
+        <v>0.9841695057211074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9704802796599525</v>
+        <v>0.9181239114150919</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1176430583000183</v>
+        <v>0.1325109899044037</v>
       </c>
       <c r="H12" t="n">
-        <v>1.64620566368103</v>
+        <v>1.697457790374756</v>
       </c>
       <c r="I12" t="n">
-        <v>0.122896134853363</v>
+        <v>0.4927010238170624</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4582662284374237</v>
+        <v>0.07746531814336777</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2905811667442322</v>
+        <v>0.2850830852985382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_11</t>
+          <t>model_7_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9719140302210174</v>
+        <v>0.9682926760407943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7536862212663137</v>
+        <v>0.7460929854253856</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9749598189532052</v>
+        <v>0.06694326611784296</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9678436761927975</v>
+        <v>0.9842348752688888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9702522619832865</v>
+        <v>0.9183785116774299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1178708076477051</v>
+        <v>0.1330688446760178</v>
       </c>
       <c r="H13" t="n">
-        <v>1.647101402282715</v>
+        <v>1.697877407073975</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1236583516001701</v>
+        <v>0.4912479817867279</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4619928896427155</v>
+        <v>0.07714544236660004</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2928256988525391</v>
+        <v>0.2841966152191162</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.971858135368282</v>
+        <v>0.9681554257427148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7535522902326022</v>
+        <v>0.7460291624396098</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9748063198095548</v>
+        <v>0.06970889682237869</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9675852649133692</v>
+        <v>0.9842985801867958</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9700251811569387</v>
+        <v>0.9186323719156371</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1181053817272186</v>
+        <v>0.1336448639631271</v>
       </c>
       <c r="H14" t="n">
-        <v>1.64799702167511</v>
+        <v>1.698304176330566</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1244163885712624</v>
+        <v>0.4897918701171875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4657054841518402</v>
+        <v>0.07683370262384415</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2950609922409058</v>
+        <v>0.2833126783370972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_13</t>
+          <t>model_7_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9718005868932639</v>
+        <v>0.9680138059193267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7534183971774759</v>
+        <v>0.7459642370025813</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9746537116369818</v>
+        <v>0.07248044897599737</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9673277023392742</v>
+        <v>0.9843604764670711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9697989509272226</v>
+        <v>0.9188853542371742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1183468997478485</v>
+        <v>0.1342392116785049</v>
       </c>
       <c r="H15" t="n">
-        <v>1.648892402648926</v>
+        <v>1.69873833656311</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1251700222492218</v>
+        <v>0.4883326888084412</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4694059193134308</v>
+        <v>0.0765308290719986</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2972879111766815</v>
+        <v>0.2824318408966064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_14</t>
+          <t>model_7_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9717415511928146</v>
+        <v>0.967867623305799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7532845675519628</v>
+        <v>0.7458981959602745</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9745021486822285</v>
+        <v>0.07525564863611633</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9670711443199429</v>
+        <v>0.9844203839766067</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9695737145213343</v>
+        <v>0.91913730406356</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1185946688055992</v>
+        <v>0.1348527073860168</v>
       </c>
       <c r="H16" t="n">
-        <v>1.649787187576294</v>
+        <v>1.699179887771606</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1259185075759888</v>
+        <v>0.4868715405464172</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4730919301509857</v>
+        <v>0.07623767852783203</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2995050847530365</v>
+        <v>0.2815545499324799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_15</t>
+          <t>model_7_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.971681042790464</v>
+        <v>0.9677167762222518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7531508324048368</v>
+        <v>0.7458310408067776</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9743515030439187</v>
+        <v>0.07803518479584004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9668155726906668</v>
+        <v>0.9844782138130793</v>
       </c>
       <c r="F17" t="n">
-        <v>0.969349389099236</v>
+        <v>0.9193880731615682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1188485994935036</v>
+        <v>0.1354857683181763</v>
       </c>
       <c r="H17" t="n">
-        <v>1.650681614875793</v>
+        <v>1.699629068374634</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1266624480485916</v>
+        <v>0.4854081571102142</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4767637550830841</v>
+        <v>0.07595468312501907</v>
       </c>
       <c r="K17" t="n">
-        <v>0.301713228225708</v>
+        <v>0.2806814312934875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_16</t>
+          <t>model_7_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9716191173451616</v>
+        <v>0.9675611098121446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7530172193514987</v>
+        <v>0.7457627216058678</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9742018729471971</v>
+        <v>0.08081698782247937</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9665609738466526</v>
+        <v>0.9845338263907266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9691260933484214</v>
+        <v>0.9196374546976142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1191084831953049</v>
+        <v>0.1361390799283981</v>
       </c>
       <c r="H18" t="n">
-        <v>1.651575088500977</v>
+        <v>1.700085878372192</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1274013817310333</v>
+        <v>0.4839435219764709</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4804216027259827</v>
+        <v>0.07568255066871643</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3039112687110901</v>
+        <v>0.2798131108283997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_17</t>
+          <t>model_7_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9715558519951715</v>
+        <v>0.967400550623468</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7528837274236815</v>
+        <v>0.7456932172096397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9740532329232394</v>
+        <v>0.08360180243001902</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9663074144445001</v>
+        <v>0.9845869747023144</v>
       </c>
       <c r="F19" t="n">
-        <v>0.968903764057031</v>
+        <v>0.9198853990725527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1193739995360374</v>
+        <v>0.1368129104375839</v>
       </c>
       <c r="H19" t="n">
-        <v>1.652467608451843</v>
+        <v>1.700550556182861</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1281354278326035</v>
+        <v>0.4824773669242859</v>
       </c>
       <c r="J19" t="n">
-        <v>0.484064519405365</v>
+        <v>0.07542246580123901</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3060998022556305</v>
+        <v>0.2789497971534729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_18</t>
+          <t>model_7_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9714912383717361</v>
+        <v>0.9672348935489484</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7527503616852228</v>
+        <v>0.7456225103590914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9739055166288811</v>
+        <v>0.0863882046404123</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9660548479896863</v>
+        <v>0.9846376101757799</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9686824038302247</v>
+        <v>0.9201316000591261</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1196451857686043</v>
+        <v>0.1375081390142441</v>
       </c>
       <c r="H20" t="n">
-        <v>1.653359413146973</v>
+        <v>1.701023459434509</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1288649141788483</v>
+        <v>0.4810103476047516</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4876931309700012</v>
+        <v>0.07517468929290771</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3082787990570068</v>
+        <v>0.2780925631523132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_19</t>
+          <t>model_7_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9714254216163839</v>
+        <v>0.9670640099223151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.752617161392397</v>
+        <v>0.7455505590288984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.973758997765272</v>
+        <v>0.08917500839492554</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9658033971988244</v>
+        <v>0.9846854731616516</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9684621074935703</v>
+        <v>0.9203759222405206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1199213787913322</v>
+        <v>0.1382253021001816</v>
       </c>
       <c r="H21" t="n">
-        <v>1.654250144958496</v>
+        <v>1.701504707336426</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1295884847640991</v>
+        <v>0.4795430898666382</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4913057684898376</v>
+        <v>0.07494047284126282</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3104473054409027</v>
+        <v>0.2772418260574341</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_20</t>
+          <t>model_7_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.971358412258883</v>
+        <v>0.9668877955782166</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7524841613514597</v>
+        <v>0.7454773473872308</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9736135295889071</v>
+        <v>0.09196334049357846</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9655529581935643</v>
+        <v>0.9847303861660416</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9682428586328369</v>
+        <v>0.9206183018611839</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1202026158571243</v>
+        <v>0.138964831829071</v>
       </c>
       <c r="H22" t="n">
-        <v>1.655139565467834</v>
+        <v>1.701994180679321</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1303068548440933</v>
+        <v>0.4780750572681427</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4949038624763489</v>
+        <v>0.07472069561481476</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3126055300235748</v>
+        <v>0.2763979136943817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_21</t>
+          <t>model_7_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.971290224650071</v>
+        <v>0.9667060821247562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7523513668886366</v>
+        <v>0.7454028205949426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9734690765127259</v>
+        <v>0.09474972943709548</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9653036096451023</v>
+        <v>0.9847722060785278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9680246530355628</v>
+        <v>0.9208583612676834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.120488777756691</v>
+        <v>0.1397274434566498</v>
       </c>
       <c r="H23" t="n">
-        <v>1.656027555465698</v>
+        <v>1.702492475509644</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1310202330350876</v>
+        <v>0.4766080677509308</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4984862506389618</v>
+        <v>0.07451605796813965</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3147534430027008</v>
+        <v>0.275562047958374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_22</t>
+          <t>model_7_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9712209733774058</v>
+        <v>0.9665186710175687</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7522187756639094</v>
+        <v>0.7453270116278312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9733257265775086</v>
+        <v>0.09753530998562177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9650553769358177</v>
+        <v>0.9848105932275482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9678075567369797</v>
+        <v>0.9210959533791105</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1207794174551964</v>
+        <v>0.1405139714479446</v>
       </c>
       <c r="H24" t="n">
-        <v>1.656914234161377</v>
+        <v>1.702999353408813</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1317281424999237</v>
+        <v>0.4751414656639099</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5020526647567749</v>
+        <v>0.07432821393013</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3168904781341553</v>
+        <v>0.2747347950935364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_23</t>
+          <t>model_7_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9711506519499583</v>
+        <v>0.9663254765171448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7520864501841444</v>
+        <v>0.7452498734993382</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9731834363615952</v>
+        <v>0.1003189730283062</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9648082680126436</v>
+        <v>0.9848455728315502</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9675915390537431</v>
+        <v>0.9213309685306846</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1210745424032211</v>
+        <v>0.1413247734308243</v>
       </c>
       <c r="H25" t="n">
-        <v>1.657799005508423</v>
+        <v>1.703515291213989</v>
       </c>
       <c r="I25" t="n">
-        <v>0.132430836558342</v>
+        <v>0.4736758768558502</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5056028962135315</v>
+        <v>0.07415704429149628</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3190168738365173</v>
+        <v>0.273916482925415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_24</t>
+          <t>model_7_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9710793522738106</v>
+        <v>0.9661262473048596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7519543582041661</v>
+        <v>0.7451713562286059</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9730423373690483</v>
+        <v>0.1030976061559891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9645622921463274</v>
+        <v>0.9848767191864174</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9673766347902117</v>
+        <v>0.9215629610708136</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1213737651705742</v>
+        <v>0.1421608924865723</v>
       </c>
       <c r="H26" t="n">
-        <v>1.658682346343994</v>
+        <v>1.70404040813446</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1331276297569275</v>
+        <v>0.4722129702568054</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5091367959976196</v>
+        <v>0.07400462776422501</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3211323022842407</v>
+        <v>0.2731087207794189</v>
       </c>
     </row>
   </sheetData>
